--- a/Backward propogation.xlsx
+++ b/Backward propogation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iris.kurapaty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6BE519-BCBB-4AFE-A397-CAF2491CEB76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA1D4D-A1E2-40DE-AC97-E75196843154}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC88990E-C38A-45B4-A435-FF175AEE2BB2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>target</t>
   </si>
@@ -224,13 +224,28 @@
     <t>ẟE_t/ẟout_h1 = ẟ(E1 + E2)/ẟout_h1</t>
   </si>
   <si>
-    <t xml:space="preserve"> (out_o1 - T1) * out_o1 *(1 - out_o1) * W5 + (out_o2 - T2) * out_o2 *(1 - out_o2) * W7</t>
+    <t>ῃ</t>
   </si>
   <si>
-    <t>ẟE1/ẟout_h1 = ẟE1/ẟout_o1 *  ẟout_o1/ẟo1 * ẟo1/ẟout_h1 =</t>
+    <t>ẟE_t/ẟout_h2 = ẟ(E1 + E2)/ẟout_h2</t>
   </si>
   <si>
-    <t>ῃ</t>
+    <t xml:space="preserve">ẟE2/ẟout_h1 = ẟE2/ẟout_o2 *  ẟout_o2/ẟo2 * ẟo2/ẟout_h1 </t>
+  </si>
+  <si>
+    <t>ẟE1/ẟout_h1 = ẟE1/ẟout_o1 *  ẟout_o1/ẟo1 * ẟo1/ẟout_h1</t>
+  </si>
+  <si>
+    <t>ẟE1/ẟout_h2 = ẟE1/ẟout_o1 *  ẟout_o1/ẟo1 * ẟo1/ẟout_h2</t>
+  </si>
+  <si>
+    <t>ẟE2/ẟout_h2 = ẟE2/ẟout_o2 *  ẟout_o2/ẟo2 * ẟo2/ẟout_h2</t>
+  </si>
+  <si>
+    <t>ẟE_t/ẟout_h1= (out_o1 - T1) * out_o1 *(1 - out_o1) * W5 + (out_o2 - T2) * out_o2 *(1 - out_o2) * W7</t>
+  </si>
+  <si>
+    <t>ẟE_t/ẟout_h2= (out_o1 - T1) * out_o1 *(1 - out_o1) * W6 + (out_o2 - T2) * out_o2 *(1 - out_o2) * W8</t>
   </si>
 </sst>
 </file>
@@ -238,7 +253,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -307,7 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1963,7 +1978,7 @@
   <dimension ref="B3:AF147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,17 +2380,17 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="V24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
@@ -2403,13 +2418,17 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="V25" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -2436,7 +2455,9 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -2469,7 +2490,9 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -2502,7 +2525,9 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -2619,7 +2644,7 @@
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>2</v>
